--- a/resource/excel/Scene.xlsx
+++ b/resource/excel/Scene.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\i0gan\squick\build\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB32AEE-67C7-4F85-840A-B874FA4DB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2442" yWindow="3882" windowWidth="31166" windowHeight="14187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26136" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -121,6 +115,9 @@
     <t>场景背景音乐列表</t>
   </si>
   <si>
+    <t>场景类型: 类型查看proto ESceneType</t>
+  </si>
+  <si>
     <t>actorid</t>
   </si>
   <si>
@@ -130,6 +127,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>../config/ini/Scene/1.xml</t>
+  </si>
+  <si>
     <t>0,0.5,0;1,0.5,1;2,0.5,3</t>
   </si>
   <si>
@@ -139,27 +145,41 @@
     <t>Sources/Music/Town</t>
   </si>
   <si>
-    <t>../config/ini/Scene/1.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>UI/ChronoBlade_forest_wallpaper</t>
   </si>
   <si>
     <t>../config/ini/Navigation/1.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>World</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/ChronoBlade_forest_wallpaper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>玩家个人大厅</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PvpRoom</t>
+  </si>
+  <si>
+    <t>PVP对战房间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -174,20 +194,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +364,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -331,9 +675,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -377,27 +963,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,10 +1038,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="282C34"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D8DEE9"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -726,35 +1356,37 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="18.212962962963" customWidth="1"/>
+    <col min="4" max="4" width="21.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="9" width="53.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="13" width="27.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="36.109375" customWidth="1"/>
-    <col min="16" max="17" width="45.33203125" customWidth="1"/>
+    <col min="7" max="9" width="53.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="8.87962962962963" customWidth="1"/>
+    <col min="11" max="11" width="27.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="40.75" customWidth="1"/>
+    <col min="13" max="13" width="27.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="9.33333333333333" customWidth="1"/>
+    <col min="15" max="15" width="36.1111111111111" customWidth="1"/>
+    <col min="16" max="17" width="45.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -807,7 +1439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" spans="1:17">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -860,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:17">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -913,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" spans="1:17">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -966,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="1:17">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" spans="1:17">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" spans="1:17">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1178,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="3" customFormat="1" spans="1:17">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="4" customFormat="1" ht="15.15" spans="1:17">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -1259,28 +1891,30 @@
       <c r="K10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="L10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="15"/>
       <c r="N10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D11">
         <v>99999</v>
@@ -1292,19 +1926,19 @@
         <v>39</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1316,36 +1950,110 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>9999999</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="P12" s="12"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="Q12" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>99999</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
       <c r="K13" s="12"/>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="12"/>
       <c r="F14" s="14"/>
       <c r="G14" s="12"/>
@@ -1356,7 +2064,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="12"/>
       <c r="F15" s="14"/>
       <c r="G15" s="12"/>
@@ -1367,7 +2075,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="12"/>
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
@@ -1378,7 +2086,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="12"/>
       <c r="F17" s="14"/>
       <c r="G17" s="12"/>
@@ -1389,7 +2097,7 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="12"/>
       <c r="F18" s="14"/>
       <c r="G18" s="12"/>
@@ -1400,7 +2108,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="12"/>
       <c r="F19" s="14"/>
       <c r="G19" s="12"/>
@@ -1411,7 +2119,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="12"/>
       <c r="F20" s="14"/>
       <c r="G20" s="12"/>
@@ -1422,7 +2130,7 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="12"/>
       <c r="F21" s="14"/>
       <c r="G21" s="12"/>
@@ -1433,7 +2141,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="12"/>
       <c r="F22" s="14"/>
       <c r="G22" s="12"/>
@@ -1444,7 +2152,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="12"/>
       <c r="F23" s="14"/>
       <c r="G23" s="12"/>
@@ -1455,7 +2163,7 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="12"/>
       <c r="F24" s="14"/>
       <c r="G24" s="12"/>
@@ -1466,7 +2174,7 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="12"/>
       <c r="F25" s="14"/>
       <c r="G25" s="12"/>
@@ -1477,7 +2185,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="12"/>
       <c r="F26" s="14"/>
       <c r="G26" s="12"/>
@@ -1488,7 +2196,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="12"/>
       <c r="F27" s="14"/>
       <c r="G27" s="12"/>
@@ -1499,7 +2207,7 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="12"/>
       <c r="F28" s="14"/>
       <c r="G28" s="12"/>
@@ -1510,7 +2218,7 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="12"/>
       <c r="F29" s="14"/>
       <c r="G29" s="12"/>
@@ -1521,7 +2229,7 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="12"/>
       <c r="F30" s="14"/>
       <c r="G30" s="12"/>
@@ -1532,7 +2240,7 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="12"/>
       <c r="F31" s="14"/>
       <c r="G31" s="12"/>
@@ -1544,14 +2252,13 @@
       <c r="Q31" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:O9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:O9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
